--- a/data/item_list.xlsx
+++ b/data/item_list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="0" windowWidth="14220" windowHeight="5130" activeTab="2"/>
+    <workbookView xWindow="2250" yWindow="0" windowWidth="14220" windowHeight="5130" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="370">
   <si>
     <t>#</t>
   </si>
@@ -916,9 +916,6 @@
     <t>duration</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>Weapon</t>
   </si>
   <si>
@@ -1100,6 +1097,45 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>item_type</t>
+  </si>
+  <si>
+    <t>consume_word</t>
+  </si>
+  <si>
+    <t>min_level</t>
+  </si>
+  <si>
+    <t>number_of_target</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>unknown.png</t>
+  </si>
+  <si>
+    <t>A kids toy, can be somewhat distracting</t>
+  </si>
+  <si>
+    <t>distracted</t>
+  </si>
+  <si>
+    <t>This staff was used by a powerful Japanese robot</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>whacked</t>
+  </si>
+  <si>
+    <t>Basically a giant Nifty Nabber with razor blades for teeth</t>
+  </si>
+  <si>
+    <t>bit</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1500,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1481,7 +1517,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1498,7 +1534,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1515,7 +1551,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1532,7 +1568,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -1549,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -1566,7 +1602,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -1583,7 +1619,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1600,7 +1636,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -1617,7 +1653,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1634,7 +1670,7 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1668,7 +1704,7 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1821,7 +1857,7 @@
         <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -1838,7 +1874,7 @@
         <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -1872,7 +1908,7 @@
         <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
@@ -1889,7 +1925,7 @@
         <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -1906,7 +1942,7 @@
         <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
@@ -1923,7 +1959,7 @@
         <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
@@ -1940,7 +1976,7 @@
         <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -1974,7 +2010,7 @@
         <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
@@ -1988,10 +2024,10 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
+        <v>339</v>
+      </c>
+      <c r="C33" t="s">
         <v>340</v>
-      </c>
-      <c r="C33" t="s">
-        <v>341</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
@@ -2008,7 +2044,7 @@
         <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D34" t="s">
         <v>16</v>
@@ -4088,20 +4124,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="6" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>290</v>
       </c>
@@ -4121,135 +4157,216 @@
         <v>295</v>
       </c>
       <c r="G1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="H1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>265</v>
       </c>
+      <c r="B2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
       <c r="G2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="H2" t="s">
+        <v>364</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>266</v>
       </c>
+      <c r="B3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
       <c r="G3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="H3" t="s">
+        <v>367</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>267</v>
       </c>
+      <c r="B4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D4">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
       <c r="G4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="H4" t="s">
+        <v>369</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>268</v>
       </c>
       <c r="G5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>269</v>
       </c>
       <c r="G6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>270</v>
       </c>
       <c r="G7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>271</v>
       </c>
       <c r="G8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>272</v>
       </c>
       <c r="G9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>273</v>
       </c>
       <c r="G10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>274</v>
       </c>
       <c r="G11" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>275</v>
       </c>
       <c r="G12" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>276</v>
       </c>
       <c r="G13" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>277</v>
       </c>
       <c r="G14" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>278</v>
       </c>
       <c r="G15" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>279</v>
       </c>
       <c r="G16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>280</v>
       </c>
       <c r="G17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4257,63 +4374,63 @@
         <v>281</v>
       </c>
       <c r="G18" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G19" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>283</v>
       </c>
       <c r="G20" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>284</v>
       </c>
       <c r="G21" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>285</v>
       </c>
       <c r="G22" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>286</v>
       </c>
       <c r="G23" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>287</v>
       </c>
       <c r="G24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>288</v>
       </c>
       <c r="G25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -4321,167 +4438,167 @@
         <v>289</v>
       </c>
       <c r="G26" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="G27" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="G27" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="G28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G29" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G29" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="G30" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G30" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="G31" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="G31" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="G32" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="G32" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="G33" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G33" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="G34" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G34" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="G35" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G36" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="G36" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="G37" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="G37" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="G38" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G38" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="G39" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G39" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="G40" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G40" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="G41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G42" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G43" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="G43" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="G44" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G45" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G45" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="G46" t="s">
         <v>317</v>
-      </c>
-      <c r="G46" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -4489,10 +4606,10 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C47" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D47">
         <v>10</v>
@@ -4506,10 +4623,10 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C48" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D48">
         <v>30</v>
@@ -4520,10 +4637,10 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D49">
         <v>60</v>
@@ -4534,10 +4651,10 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C50" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
@@ -4548,10 +4665,10 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C51" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D51">
         <v>10</v>
@@ -4562,10 +4679,10 @@
         <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C52" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D52">
         <v>30</v>
@@ -4576,10 +4693,10 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C53" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D53">
         <v>60</v>
@@ -4590,10 +4707,10 @@
         <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D54" s="2">
         <v>1</v>
@@ -4604,10 +4721,10 @@
         <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C55" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D55" s="2">
         <v>1</v>
@@ -4618,10 +4735,10 @@
         <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C56" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
@@ -4635,7 +4752,7 @@
         <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D57" s="2">
         <v>0.1</v>
@@ -4646,10 +4763,10 @@
         <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D58" s="2">
         <v>1</v>
@@ -4663,10 +4780,10 @@
         <v>31</v>
       </c>
       <c r="C59" t="s">
+        <v>343</v>
+      </c>
+      <c r="D59" t="s">
         <v>344</v>
-      </c>
-      <c r="D59" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -4677,10 +4794,10 @@
         <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D60" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -4691,10 +4808,10 @@
         <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -4705,10 +4822,10 @@
         <v>40</v>
       </c>
       <c r="C62" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -4719,10 +4836,10 @@
         <v>42</v>
       </c>
       <c r="C63" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D63" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -4733,10 +4850,10 @@
         <v>46</v>
       </c>
       <c r="C64" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D64" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -4744,10 +4861,10 @@
         <v>53</v>
       </c>
       <c r="B65" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C65" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D65">
         <v>10</v>
@@ -4758,10 +4875,10 @@
         <v>54</v>
       </c>
       <c r="B66" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C66" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D66">
         <v>10</v>
@@ -4772,10 +4889,10 @@
         <v>55</v>
       </c>
       <c r="B67" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C67" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D67">
         <v>10</v>
@@ -4786,10 +4903,10 @@
         <v>57</v>
       </c>
       <c r="B68" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C68" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D68">
         <v>10</v>
@@ -4803,10 +4920,10 @@
         <v>59</v>
       </c>
       <c r="C69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -4814,10 +4931,10 @@
         <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C70" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D70" s="2">
         <v>1</v>
@@ -4828,13 +4945,13 @@
         <v>62</v>
       </c>
       <c r="B71" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
